--- a/biology/Zoologie/Harrison_Gray_Dyar/Harrison_Gray_Dyar.xlsx
+++ b/biology/Zoologie/Harrison_Gray_Dyar/Harrison_Gray_Dyar.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Harrison Gray Dyar est un entomologiste américain, né le 14 février 1866 à New York et mort le 19 janvier 1929.
 Il est le fils d’Harrison Gray Dyar et d’Eleonora Rosella née Hannum. Il obtient son Bachelor of Sciences au Massachusetts Institute of Technology en 1889, son Master of Arts à Columbia en 1894 ainsi que son Ph. D. en 1895. Il se marie le 14 octobre 1889 avec Zella Peabody dont il aura deux enfants.
